--- a/Proyectos Evaluados/Quirquincho/Antecedentes PF - Quiriquincho II_V1 - Resultados TIR.xlsx
+++ b/Proyectos Evaluados/Quirquincho/Antecedentes PF - Quiriquincho II_V1 - Resultados TIR.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Quirquincho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B0C5F3-8E46-4642-9302-742A2A4D5FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9394F20-B8B2-420A-BEE9-730CDBFC13FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso PMG" sheetId="1" r:id="rId1"/>
     <sheet name="Perfil 10,611MWp" sheetId="4" r:id="rId2"/>
     <sheet name="Resultados" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,6 +660,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1000,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25429B-4721-41C5-85C0-9A506688E06E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -71452,8 +71458,8 @@
   </sheetPr>
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71546,22 +71552,22 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="28">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="28">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="27">
         <v>0.63</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="27">
         <v>9.4</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="27">
         <v>60.7</v>
       </c>
     </row>
@@ -71606,22 +71612,22 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="28">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="28">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="27">
         <v>0.66</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="27">
         <v>9.4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="27">
         <v>58.2</v>
       </c>
     </row>
@@ -71671,15 +71677,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -71940,6 +71937,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -71953,14 +71959,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A97AAB-0233-47BC-A92C-8953E418CF27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12936D82-D8F1-459F-98CD-E7AE1E486DB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -71979,6 +71977,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62A97AAB-0233-47BC-A92C-8953E418CF27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2811C8D5-BEB1-44BF-AF98-40068CDD9A53}">
   <ds:schemaRefs>
